--- a/data/trans_camb/P1002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,23</t>
+          <t>-2,53; 1,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 8,55</t>
+          <t>-0,58; 8,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,64</t>
+          <t>-1,22; 3,14</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-46,47%</t>
+          <t>-50,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>106,96%</t>
+          <t>106,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>35,23%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 395,61</t>
+          <t>-22,48; 392,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,42; 224,84</t>
+          <t>-47,67; 207,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,32</t>
+          <t>-1,9; 3,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,02</t>
+          <t>-3,78; 3,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,71</t>
+          <t>-1,98; 2,17</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,08; 175,45</t>
+          <t>-62,77; 179,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 83,38</t>
+          <t>-52,52; 63,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 81,33</t>
+          <t>-41,19; 62,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,01</t>
+          <t>-1,18; 4,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,53</t>
+          <t>-2,18; 2,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,35</t>
+          <t>-1,1; 2,36</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,49%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 134,81</t>
+          <t>-25,52; 138,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 67,28</t>
+          <t>-34,66; 65,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 62,03</t>
+          <t>-20,38; 61,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,71</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,03</t>
+          <t>-4,18; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,07</t>
+          <t>-4,67; 2,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,91</t>
+          <t>-3,82; 1,77</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>-11,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>-9,96%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 119,96</t>
+          <t>-63,66; 76,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 37,72</t>
+          <t>-39,95; 29,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 47,0</t>
+          <t>-45,88; 27,34</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,64</t>
+          <t>-3,22; 3,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,48</t>
+          <t>-0,71; 6,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,88</t>
+          <t>-1,05; 3,77</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>16,08%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 65,78</t>
+          <t>-34,29; 64,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 85,77</t>
+          <t>-7,01; 85,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 53,83</t>
+          <t>-10,24; 52,17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-3,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 8,21</t>
+          <t>-3,13; 7,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 0,96</t>
+          <t>-6,17; 2,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -0,52</t>
+          <t>-7,15; 0,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,92; 15,1</t>
+          <t>1,07; 12,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,42</t>
+          <t>-1,64; 8,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 5,54</t>
+          <t>-13,81; 1,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,91</t>
+          <t>1,17; 8,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,57</t>
+          <t>-2,25; 4,57</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 2,06</t>
+          <t>-9,87; -0,24</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-20,75%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-28,98%</t>
+          <t>-27,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>64,97%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>-35,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-31,01%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 78,31</t>
+          <t>-24,17; 88,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 10,27</t>
+          <t>-49,54; 34,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -3,81</t>
+          <t>-53,11; 13,8</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32,17; 109,1</t>
+          <t>6,46; 108,45</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,93; 65,97</t>
+          <t>-10,56; 73,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 37,33</t>
+          <t>-78,33; 7,66</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,48; 80,65</t>
+          <t>8,34; 79,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 34,39</t>
+          <t>-16,26; 41,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 15,43</t>
+          <t>-65,76; -3,34</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>13,51</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,73</t>
+          <t>-1,2; 14,24</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,23</t>
+          <t>-11,03; 1,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,83</t>
+          <t>-11,33; -0,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,87</t>
+          <t>6,69; 20,66</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,72</t>
+          <t>-0,17; 12,58</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,59</t>
+          <t>0,46; 11,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,51</t>
+          <t>5,5; 15,33</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,11</t>
+          <t>-2,22; 7,19</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,55</t>
+          <t>-2,3; 5,9</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>-26,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>-32,58%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>64,39%</t>
+          <t>73,47%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-6,83; 111,89</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-55,71; 12,01</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-55,3; -3,04</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>31,62; 136,43</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 83,96</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 78,43</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>27,07; 99,42</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 48,64</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-11,04; 41,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>5,47</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 2,73</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 1,23</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 1,46</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 6,87</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,72</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 2,82</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 4,51</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 2,11</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 1,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>29,36%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>64,39%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>17,54%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>51,51%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>17,35%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>6,09; 58,56</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-16,37; 26,31</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-8,62; 39,53</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-21,23; 30,35</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>40,8; 87,43</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>6,9; 47,83</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>8,78; 45,82</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 35,87</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>35,23; 70,43</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>4,04; 32,98</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>8,38; 39,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 30,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P1002-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,05</t>
+          <t>-1,64; 2,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,49</t>
+          <t>-1,47; 2,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,77</t>
+          <t>-2,4; 1,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,29</t>
+          <t>-0,66; 4,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,36</t>
+          <t>-2,6; 1,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 8,25</t>
+          <t>-0,39; 8,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,49</t>
+          <t>-0,58; 2,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,34</t>
+          <t>-1,48; 1,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,14</t>
+          <t>-1,07; 3,4</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,92; 281,3</t>
+          <t>-64,05; 261,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 288,37</t>
+          <t>-56,99; 295,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 692,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 248,36</t>
+          <t>-20,91; 238,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,89; 93,33</t>
+          <t>-67,64; 97,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 392,43</t>
+          <t>-16,53; 418,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 151,83</t>
+          <t>-22,47; 166,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,66; 76,44</t>
+          <t>-50,07; 82,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,67; 207,93</t>
+          <t>-42,46; 202,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,86</t>
+          <t>-1,61; 2,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,26</t>
+          <t>-0,86; 3,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,57</t>
+          <t>-1,83; 3,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,72</t>
+          <t>-3,7; 1,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,53</t>
+          <t>-4,88; 0,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,1</t>
+          <t>-4,36; 2,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,2</t>
+          <t>-1,95; 1,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,42</t>
+          <t>-2,13; 1,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,17</t>
+          <t>-1,59; 2,6</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 111,47</t>
+          <t>-48,6; 118,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 172,16</t>
+          <t>-27,62; 198,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,77; 179,77</t>
+          <t>-58,49; 212,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 40,86</t>
+          <t>-49,39; 44,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 12,96</t>
+          <t>-62,98; 9,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 63,53</t>
+          <t>-58,73; 53,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 34,34</t>
+          <t>-39,95; 33,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 42,48</t>
+          <t>-40,92; 36,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 62,28</t>
+          <t>-34,0; 73,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,82</t>
+          <t>-1,77; 2,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,54</t>
+          <t>-2,92; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,1</t>
+          <t>-1,45; 3,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,98</t>
+          <t>3,39; 9,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,03</t>
+          <t>-1,7; 3,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,51</t>
+          <t>-2,02; 2,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,27</t>
+          <t>1,44; 5,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,61</t>
+          <t>-1,6; 1,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,36</t>
+          <t>-1,0; 2,4</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 92,49</t>
+          <t>-35,01; 102,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 55,11</t>
+          <t>-54,24; 51,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,52; 138,61</t>
+          <t>-29,39; 131,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,5; 221,3</t>
+          <t>49,7; 217,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 71,39</t>
+          <t>-27,77; 76,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 65,63</t>
+          <t>-31,47; 73,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,65; 135,22</t>
+          <t>24,77; 127,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 41,53</t>
+          <t>-30,02; 42,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 61,23</t>
+          <t>-18,3; 64,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,83</t>
+          <t>-0,95; 4,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,35</t>
+          <t>-1,07; 4,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,77</t>
+          <t>-4,41; 2,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,33</t>
+          <t>-0,54; 6,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,54</t>
+          <t>-3,82; 3,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,16</t>
+          <t>-4,19; 2,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,12</t>
+          <t>0,1; 4,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,1</t>
+          <t>-1,57; 3,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,77</t>
+          <t>-3,73; 1,55</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 154,54</t>
+          <t>-19,84; 156,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 135,41</t>
+          <t>-17,33; 145,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,66; 76,0</t>
+          <t>-62,09; 80,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 93,26</t>
+          <t>-5,06; 89,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 45,31</t>
+          <t>-32,11; 42,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 29,05</t>
+          <t>-36,55; 32,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 83,66</t>
+          <t>0,93; 80,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 51,96</t>
+          <t>-18,58; 50,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 27,34</t>
+          <t>-48,76; 23,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,55</t>
+          <t>-2,19; 5,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,46</t>
+          <t>-5,26; 1,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,54</t>
+          <t>-3,07; 3,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 15,28</t>
+          <t>5,25; 15,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,25</t>
+          <t>1,51; 10,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,27</t>
+          <t>-1,2; 5,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,13</t>
+          <t>2,94; 9,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,07</t>
+          <t>-0,29; 5,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,77</t>
+          <t>-1,04; 3,64</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 100,68</t>
+          <t>-24,86; 94,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 28,09</t>
+          <t>-55,82; 28,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,29; 64,02</t>
+          <t>-32,57; 60,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>39,91; 197,24</t>
+          <t>40,96; 191,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,27; 130,26</t>
+          <t>11,34; 137,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 85,02</t>
+          <t>-10,4; 78,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,49; 119,54</t>
+          <t>29,38; 124,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 68,2</t>
+          <t>-3,14; 74,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 52,17</t>
+          <t>-10,08; 50,84</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 7,31</t>
+          <t>-2,78; 7,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 2,73</t>
+          <t>-6,07; 3,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,93</t>
+          <t>-6,95; 1,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,07; 12,37</t>
+          <t>1,19; 12,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 8,78</t>
+          <t>-1,49; 9,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 1,16</t>
+          <t>-13,27; 1,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,66</t>
+          <t>1,03; 8,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,57</t>
+          <t>-2,55; 4,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -0,24</t>
+          <t>-9,79; -0,25</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 88,26</t>
+          <t>-25,12; 88,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 34,85</t>
+          <t>-48,8; 41,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,11; 13,8</t>
+          <t>-52,28; 17,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,46; 108,45</t>
+          <t>6,78; 106,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 73,67</t>
+          <t>-10,08; 76,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,33; 7,66</t>
+          <t>-75,45; 10,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,34; 79,18</t>
+          <t>5,29; 78,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 41,49</t>
+          <t>-18,44; 43,23</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-65,76; -3,34</t>
+          <t>-64,58; -3,46</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 14,24</t>
+          <t>-1,58; 13,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 1,27</t>
+          <t>-10,64; 1,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -0,51</t>
+          <t>-10,84; 0,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,69; 20,66</t>
+          <t>7,25; 20,48</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 12,58</t>
+          <t>-0,09; 13,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,46; 11,41</t>
+          <t>0,93; 11,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,5; 15,33</t>
+          <t>5,34; 15,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 7,19</t>
+          <t>-2,77; 6,93</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 5,9</t>
+          <t>-2,67; 5,71</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 111,89</t>
+          <t>-7,9; 108,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-55,71; 12,01</t>
+          <t>-53,39; 13,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-55,3; -3,04</t>
+          <t>-55,18; 3,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>31,62; 136,43</t>
+          <t>32,5; 133,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 83,96</t>
+          <t>-0,81; 91,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,37; 78,43</t>
+          <t>3,13; 78,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>27,07; 99,42</t>
+          <t>26,7; 102,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 48,64</t>
+          <t>-14,01; 45,81</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 41,19</t>
+          <t>-12,69; 39,08</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,73</t>
+          <t>0,42; 2,86</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,23</t>
+          <t>-0,88; 1,29</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,46</t>
+          <t>-1,11; 1,46</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,87</t>
+          <t>4,08; 7,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,72</t>
+          <t>0,82; 3,63</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,82</t>
+          <t>-0,58; 2,84</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,51</t>
+          <t>2,63; 4,54</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,11</t>
+          <t>0,25; 2,06</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,96</t>
+          <t>-0,31; 1,87</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,09; 58,56</t>
+          <t>7,52; 61,43</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 26,31</t>
+          <t>-14,78; 28,6</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 30,35</t>
+          <t>-19,51; 30,5</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>40,8; 87,43</t>
+          <t>44,25; 89,79</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,9; 47,83</t>
+          <t>8,2; 45,48</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 35,87</t>
+          <t>-5,69; 35,68</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>35,23; 70,43</t>
+          <t>36,21; 71,56</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>4,04; 32,98</t>
+          <t>3,46; 31,8</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 30,15</t>
+          <t>-3,77; 28,85</t>
         </is>
       </c>
     </row>
